--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC28_Verify_PunchOut_User.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC28_Verify_PunchOut_User.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\Logixal_QA_Sanity\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC87092-A932-4D4A-A687-5CB80D6EB759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64067B89-2911-49A1-B206-1B9EC8B1B301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>AddToCartPDP</t>
   </si>
   <si>
-    <t>SCROLL_UP</t>
-  </si>
-  <si>
     <t>CartImage</t>
   </si>
   <si>
@@ -106,6 +103,36 @@
     <t>CSS</t>
   </si>
   <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>CLICK_PRE_ENTERTEXT</t>
+  </si>
+  <si>
+    <t>SearchBoxHomePage</t>
+  </si>
+  <si>
+    <t>ENTERTEXT</t>
+  </si>
+  <si>
+    <t>validSearch</t>
+  </si>
+  <si>
+    <t>PRESS_ENTER</t>
+  </si>
+  <si>
+    <t>15-00-A_RA BEVEL GEARBOX (TYPE A 1:1) ST</t>
+  </si>
+  <si>
+    <t>https://192.168.15.18.com/</t>
+  </si>
+  <si>
     <t>CLICK_JS</t>
   </si>
   <si>
@@ -115,37 +142,10 @@
     <t>JS_ID</t>
   </si>
   <si>
-    <t>EleType1</t>
-  </si>
-  <si>
     <t>EnableCertificate_GoTOPage</t>
   </si>
   <si>
-    <t>EleType2</t>
-  </si>
-  <si>
-    <t>JSElement</t>
-  </si>
-  <si>
-    <t>CLICK_PRE_ENTERTEXT</t>
-  </si>
-  <si>
-    <t>SearchBoxHomePage</t>
-  </si>
-  <si>
-    <t>ENTERTEXT</t>
-  </si>
-  <si>
-    <t>validSearch</t>
-  </si>
-  <si>
-    <t>PRESS_ENTER</t>
-  </si>
-  <si>
-    <t>15-00-A_RA BEVEL GEARBOX (TYPE A 1:1) ST</t>
-  </si>
-  <si>
-    <t>https://192.168.15.18.com/</t>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -607,10 +607,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -627,22 +627,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -651,22 +651,22 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -687,41 +687,41 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -737,23 +737,23 @@
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
@@ -762,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -775,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -788,22 +788,22 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +818,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -861,34 +861,34 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1103,7 +1097,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1112,16 +1106,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1140,10 +1131,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>